--- a/aspace_excel_importer/cul_extended_aspace_import_excel_template_moderate.xlsx
+++ b/aspace_excel_importer/cul_extended_aspace_import_excel_template_moderate.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="12555" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12696" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="958">
   <si>
     <t>Mapping - ArchivesSpace Resource record SECTION</t>
   </si>
@@ -106,9 +111,6 @@
   </si>
   <si>
     <t>end</t>
-  </si>
-  <si>
-    <t>Extent type: cubic feet, cds, etc.</t>
   </si>
   <si>
     <t>Top Container type</t>
@@ -2695,9 +2697,6 @@
     <t>accession</t>
   </si>
   <si>
-    <t>Beta (Betamax)</t>
-  </si>
-  <si>
     <t>add box</t>
   </si>
   <si>
@@ -2737,9 +2736,6 @@
     <t>flatbox</t>
   </si>
   <si>
-    <t>filmstrips</t>
-  </si>
-  <si>
     <t>folder</t>
   </si>
   <si>
@@ -2767,9 +2763,6 @@
     <t>microfilm</t>
   </si>
   <si>
-    <t>Mini-DVs</t>
-  </si>
-  <si>
     <t>oversize box</t>
   </si>
   <si>
@@ -2798,9 +2791,6 @@
   </si>
   <si>
     <t>videocassettes (U-matic)</t>
-  </si>
-  <si>
-    <t>videotape</t>
   </si>
   <si>
     <t>volumes</t>
@@ -2838,11 +2828,104 @@
   <si>
     <t>cartridges</t>
   </si>
+  <si>
+    <t>Extent type: boxes, linear feet, AV formats, etc.</t>
+  </si>
+  <si>
+    <t>lacquer discs</t>
+  </si>
+  <si>
+    <t>open reel audiotapes (1/4")</t>
+  </si>
+  <si>
+    <t>open reel audiotapes (1/2")</t>
+  </si>
+  <si>
+    <t>open reel audiotapes (1")</t>
+  </si>
+  <si>
+    <t>open reel audiotapes (2")</t>
+  </si>
+  <si>
+    <t>film reels (8mm)</t>
+  </si>
+  <si>
+    <t>film reels (Super 8)</t>
+  </si>
+  <si>
+    <t>film reels (16mm)</t>
+  </si>
+  <si>
+    <t>film reels (35mm)</t>
+  </si>
+  <si>
+    <t>videotapes</t>
+  </si>
+  <si>
+    <t>open reel videotapes (1/2")</t>
+  </si>
+  <si>
+    <t>open reel videotapes (1")</t>
+  </si>
+  <si>
+    <t>open reel videotapes (2")</t>
+  </si>
+  <si>
+    <t>videodisc</t>
+  </si>
+  <si>
+    <t>videocassettes</t>
+  </si>
+  <si>
+    <t>videocassettes (VC60)</t>
+  </si>
+  <si>
+    <t>videocassettes (DVCAM)</t>
+  </si>
+  <si>
+    <t>videocassettes (compact VHS)</t>
+  </si>
+  <si>
+    <t>videocassettes (Betacam)</t>
+  </si>
+  <si>
+    <t>videocassettes (Betacam SP)</t>
+  </si>
+  <si>
+    <t>videocassettes (Video 8)</t>
+  </si>
+  <si>
+    <t>videocassettes (MiniDV)</t>
+  </si>
+  <si>
+    <t>videocassettes (HDCAM SR)</t>
+  </si>
+  <si>
+    <t>videocassettes (Digital Betacam)</t>
+  </si>
+  <si>
+    <t>videocassettes (Betamax)</t>
+  </si>
+  <si>
+    <t>videocassettes (Hi 8)</t>
+  </si>
+  <si>
+    <t>videocassettes (video8)</t>
+  </si>
+  <si>
+    <t>bulk</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>inclusive</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3614,7 +3697,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3649,7 +3732,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3860,330 +3943,329 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQO7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="31" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" style="31" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="30.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="44" customWidth="1"/>
-    <col min="12" max="14" width="14.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="44" hidden="1" customWidth="1"/>
-    <col min="17" max="19" width="14.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" style="44" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="20.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="30.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" style="44" hidden="1" customWidth="1"/>
+    <col min="12" max="15" width="14.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" style="44" hidden="1" customWidth="1"/>
+    <col min="17" max="19" width="14.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5546875" style="44" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="20.44140625" style="1" customWidth="1"/>
     <col min="22" max="22" width="11" style="49" customWidth="1"/>
-    <col min="23" max="23" width="10.5703125" style="49" customWidth="1"/>
-    <col min="24" max="24" width="23.85546875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="15.140625" style="49" customWidth="1"/>
-    <col min="26" max="26" width="26.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="20.42578125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5546875" style="49" customWidth="1"/>
+    <col min="24" max="24" width="23.88671875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="15.109375" style="49" customWidth="1"/>
+    <col min="26" max="26" width="26.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="20.44140625" style="1" customWidth="1"/>
     <col min="28" max="28" width="11" style="49" customWidth="1"/>
-    <col min="29" max="29" width="10.5703125" style="49" customWidth="1"/>
-    <col min="30" max="30" width="23.85546875" style="1" customWidth="1"/>
-    <col min="31" max="31" width="15.140625" style="49" customWidth="1"/>
-    <col min="32" max="32" width="26.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="33" max="37" width="26.85546875" style="1" customWidth="1"/>
-    <col min="38" max="44" width="26.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="26.85546875" style="1" customWidth="1"/>
-    <col min="46" max="46" width="9.140625" style="1"/>
-    <col min="47" max="47" width="9.140625" style="49"/>
-    <col min="48" max="48" width="10.42578125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5546875" style="49" customWidth="1"/>
+    <col min="30" max="30" width="23.88671875" style="1" customWidth="1"/>
+    <col min="31" max="31" width="15.109375" style="49" customWidth="1"/>
+    <col min="32" max="32" width="26.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="33" max="38" width="26.88671875" style="1" customWidth="1"/>
+    <col min="39" max="44" width="26.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="26.88671875" style="1" customWidth="1"/>
+    <col min="46" max="46" width="9.109375" style="1"/>
+    <col min="47" max="47" width="9.109375" style="49"/>
+    <col min="48" max="48" width="10.44140625" style="1" customWidth="1"/>
     <col min="49" max="49" width="19" style="49" customWidth="1"/>
-    <col min="50" max="50" width="19.140625" style="49" customWidth="1"/>
-    <col min="51" max="51" width="10.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="11.42578125" style="49" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="26.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="19.109375" style="49" customWidth="1"/>
+    <col min="51" max="51" width="10.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="11.44140625" style="49" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="26.88671875" style="1" hidden="1" customWidth="1"/>
     <col min="54" max="54" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="55" max="55" width="0" style="49" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="10.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="10.44140625" style="1" hidden="1" customWidth="1"/>
     <col min="57" max="57" width="19" style="49" hidden="1" customWidth="1"/>
-    <col min="58" max="58" width="19.140625" style="49" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="10.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="60" max="60" width="11.42578125" style="49" hidden="1" customWidth="1"/>
-    <col min="61" max="61" width="10.42578125" style="1" customWidth="1"/>
-    <col min="62" max="63" width="9.140625" style="1"/>
-    <col min="64" max="64" width="15.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="58" max="58" width="19.109375" style="49" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="10.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="60" max="60" width="11.44140625" style="49" hidden="1" customWidth="1"/>
+    <col min="61" max="61" width="10.44140625" style="1" customWidth="1"/>
+    <col min="62" max="63" width="9.109375" style="1"/>
+    <col min="64" max="64" width="15.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="65" max="65" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="66" max="66" width="15.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="66" max="66" width="15.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="67" max="67" width="13" style="1" hidden="1" customWidth="1"/>
-    <col min="68" max="68" width="15.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="68" max="68" width="15.44140625" style="1" hidden="1" customWidth="1"/>
     <col min="69" max="69" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="70" max="70" width="15.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="70" max="70" width="15.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="71" max="71" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="72" max="72" width="15.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="73" max="73" width="20.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="74" max="74" width="15.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="75" max="75" width="12.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="76" max="76" width="15.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="77" max="77" width="20.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="78" max="78" width="15.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="79" max="79" width="12.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="80" max="80" width="15.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="81" max="81" width="20.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="82" max="82" width="15.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="83" max="83" width="12.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="72" max="72" width="15.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="73" max="73" width="20.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="74" max="74" width="15.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="75" max="75" width="12.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="76" max="76" width="15.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="77" max="77" width="20.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="78" max="78" width="15.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="79" max="79" width="12.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="80" max="80" width="15.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="81" max="81" width="20.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="82" max="82" width="15.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="83" max="83" width="12.88671875" style="1" hidden="1" customWidth="1"/>
     <col min="84" max="84" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="85" max="85" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="86" max="86" width="15.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="85" max="85" width="11.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="86" max="86" width="15.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="87" max="88" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="89" max="89" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="90" max="90" width="15.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="89" max="89" width="11.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="90" max="90" width="15.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="91" max="93" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="94" max="94" width="15.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="94" max="94" width="15.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="95" max="97" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="98" max="98" width="15.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="98" max="98" width="15.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="99" max="101" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="102" max="102" width="15.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="102" max="102" width="15.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="103" max="103" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="104" max="104" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="105" max="105" width="12.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="106" max="108" width="13.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="109" max="110" width="10.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="111" max="111" width="15.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="112" max="112" width="9.28515625" style="1"/>
-    <col min="113" max="113" width="17.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="104" max="104" width="11.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="105" max="105" width="12.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="106" max="108" width="13.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="109" max="110" width="10.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="111" max="111" width="15.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="112" max="112" width="9.33203125" style="1"/>
+    <col min="113" max="113" width="17.6640625" style="1" customWidth="1"/>
     <col min="114" max="114" width="17" style="1" customWidth="1"/>
-    <col min="115" max="115" width="17.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="116" max="116" width="12.28515625" style="1" customWidth="1"/>
-    <col min="117" max="117" width="17.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="118" max="118" width="11.7109375" style="1" customWidth="1"/>
-    <col min="119" max="119" width="17.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="115" max="115" width="17.6640625" style="1" customWidth="1"/>
+    <col min="116" max="116" width="12.33203125" style="1" customWidth="1"/>
+    <col min="117" max="117" width="17.6640625" style="1" customWidth="1"/>
+    <col min="118" max="118" width="11.6640625" style="1" customWidth="1"/>
+    <col min="119" max="119" width="17.6640625" style="1" customWidth="1"/>
     <col min="120" max="120" width="16" style="1" customWidth="1"/>
-    <col min="121" max="121" width="17.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="122" max="122" width="9.140625" style="1"/>
-    <col min="123" max="123" width="17.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="121" max="121" width="17.6640625" style="1" customWidth="1"/>
+    <col min="122" max="122" width="9.109375" style="1"/>
+    <col min="123" max="123" width="17.6640625" style="1" customWidth="1"/>
     <col min="124" max="124" width="12" customWidth="1"/>
-    <col min="125" max="125" width="17.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="126" max="126" width="11.85546875" style="1" customWidth="1"/>
-    <col min="127" max="127" width="17.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="128" max="128" width="11.85546875" style="1" customWidth="1"/>
-    <col min="129" max="129" width="17.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="130" max="130" width="11.85546875" style="1" customWidth="1"/>
-    <col min="131" max="131" width="17.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="132" max="132" width="11.85546875" style="1" customWidth="1"/>
-    <col min="133" max="133" width="17.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="134" max="134" width="14.85546875" style="1" customWidth="1"/>
-    <col min="135" max="135" width="17.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="136" max="136" width="12.28515625" style="1" customWidth="1"/>
-    <col min="137" max="137" width="17.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="138" max="138" width="9.140625" style="1"/>
-    <col min="139" max="139" width="17.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="140" max="140" width="9.140625" style="1"/>
-    <col min="141" max="141" width="17.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="142" max="142" width="18.42578125" style="1" customWidth="1"/>
-    <col min="143" max="143" width="17.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="144" max="144" width="10.140625" style="1" customWidth="1"/>
-    <col min="145" max="145" width="17.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="146" max="1133" width="9.28515625" style="1"/>
+    <col min="125" max="125" width="17.6640625" style="1" customWidth="1"/>
+    <col min="126" max="126" width="11.88671875" style="1" customWidth="1"/>
+    <col min="127" max="127" width="17.6640625" style="1" customWidth="1"/>
+    <col min="128" max="128" width="11.88671875" style="1" customWidth="1"/>
+    <col min="129" max="129" width="17.6640625" style="1" customWidth="1"/>
+    <col min="130" max="130" width="11.88671875" style="1" customWidth="1"/>
+    <col min="131" max="131" width="17.6640625" style="1" customWidth="1"/>
+    <col min="132" max="132" width="11.88671875" style="1" customWidth="1"/>
+    <col min="133" max="133" width="17.6640625" style="1" customWidth="1"/>
+    <col min="134" max="134" width="14.88671875" style="1" customWidth="1"/>
+    <col min="135" max="135" width="17.6640625" style="1" customWidth="1"/>
+    <col min="136" max="136" width="12.33203125" style="1" customWidth="1"/>
+    <col min="137" max="137" width="17.6640625" style="1" customWidth="1"/>
+    <col min="138" max="138" width="9.109375" style="1"/>
+    <col min="139" max="139" width="17.6640625" style="1" customWidth="1"/>
+    <col min="140" max="140" width="9.109375" style="1"/>
+    <col min="141" max="141" width="17.6640625" style="1" customWidth="1"/>
+    <col min="142" max="142" width="18.44140625" style="1" customWidth="1"/>
+    <col min="143" max="143" width="17.6640625" style="1" customWidth="1"/>
+    <col min="144" max="144" width="10.109375" style="1" customWidth="1"/>
+    <col min="145" max="145" width="17.6640625" style="1" customWidth="1"/>
+    <col min="146" max="1133" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:145 1068:1133" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:145 1068:1133" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="2" spans="1:145 1068:1133" s="1" customFormat="1" ht="64.5" thickTop="1" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:145 1068:1133" s="1" customFormat="1" ht="69.599999999999994" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M2" s="62" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N2" s="62" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O2" s="62" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P2" s="63" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="Q2" s="62" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="R2" s="62" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S2" s="62" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="T2" s="63" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U2" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V2" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W2" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X2" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y2" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Z2" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA2" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="AB2" s="54" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC2" s="54" t="s">
+        <v>349</v>
+      </c>
+      <c r="AD2" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="AB2" s="54" t="s">
-        <v>350</v>
-      </c>
-      <c r="AC2" s="54" t="s">
-        <v>350</v>
-      </c>
-      <c r="AD2" s="18" t="s">
-        <v>351</v>
-      </c>
       <c r="AE2" s="54" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF2" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AG2" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH2" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI2" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AJ2" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK2" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AL2" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AM2" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AN2" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AO2" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AP2" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AQ2" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AR2" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AS2" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT2" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AU2" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV2" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW2" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX2" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY2" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ2" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA2" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB2" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC2" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD2" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BE2" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BF2" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BG2" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BH2" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BI2" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="BJ2" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="BK2" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="BL2" s="47" t="s">
         <v>1</v>
@@ -4306,190 +4388,190 @@
         <v>1</v>
       </c>
       <c r="CZ2" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DA2" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DB2" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DC2" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DD2" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DE2" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DF2" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DG2" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DH2" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="DI2" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="DJ2" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="DK2" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="DL2" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="DM2" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="DN2" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="DO2" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="DP2" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="DQ2" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="DR2" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="DS2" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="DT2" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="DU2" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="DV2" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="DW2" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="DX2" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="DY2" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="DZ2" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="EA2" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="EB2" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="EC2" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="ED2" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="EE2" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="EF2" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="EG2" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="EH2" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="EI2" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="EJ2" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="EK2" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="EL2" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="EM2" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="EN2" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="EO2" s="29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:145 1068:1133" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:145 1068:1133" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K3" s="42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M3" s="64" t="s">
+        <v>380</v>
+      </c>
+      <c r="N3" s="64" t="s">
         <v>381</v>
       </c>
-      <c r="N3" s="64" t="s">
-        <v>382</v>
-      </c>
       <c r="O3" s="64" t="s">
+        <v>383</v>
+      </c>
+      <c r="P3" s="65" t="s">
         <v>384</v>
       </c>
-      <c r="P3" s="65" t="s">
-        <v>385</v>
-      </c>
       <c r="Q3" s="64" t="s">
+        <v>380</v>
+      </c>
+      <c r="R3" s="64" t="s">
         <v>381</v>
       </c>
-      <c r="R3" s="64" t="s">
-        <v>382</v>
-      </c>
       <c r="S3" s="64" t="s">
+        <v>383</v>
+      </c>
+      <c r="T3" s="65" t="s">
         <v>384</v>
-      </c>
-      <c r="T3" s="65" t="s">
-        <v>385</v>
       </c>
       <c r="U3" s="9" t="s">
         <v>20</v>
@@ -4501,13 +4583,13 @@
         <v>18</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y3" s="55" t="s">
         <v>19</v>
       </c>
       <c r="Z3" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA3" s="9" t="s">
         <v>20</v>
@@ -4519,34 +4601,34 @@
         <v>18</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE3" s="55" t="s">
         <v>19</v>
       </c>
       <c r="AF3" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AG3" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH3" s="11" t="s">
         <v>22</v>
       </c>
       <c r="AI3" s="11" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="AJ3" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AK3" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AL3" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AM3" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN3" s="11" t="s">
         <v>22</v>
@@ -4555,319 +4637,319 @@
         <v>24</v>
       </c>
       <c r="AP3" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AQ3" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AR3" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AS3" s="48" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="AT3" s="48" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AU3" s="53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AV3" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AW3" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX3" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="AX3" s="51" t="s">
+      <c r="AZ3" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="AY3" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="AZ3" s="51" t="s">
+      <c r="BA3" s="48" t="s">
+        <v>925</v>
+      </c>
+      <c r="BB3" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="BC3" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="BA3" s="48" t="s">
-        <v>930</v>
-      </c>
-      <c r="BB3" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="BC3" s="53" t="s">
-        <v>94</v>
-      </c>
       <c r="BD3" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BE3" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF3" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="BF3" s="51" t="s">
+      <c r="BH3" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="BG3" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH3" s="51" t="s">
-        <v>93</v>
-      </c>
       <c r="BI3" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BJ3" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BK3" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BL3" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="BM3" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="BN3" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="BO3" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="BP3" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="BQ3" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="BR3" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="BS3" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="BT3" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="BU3" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="BV3" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="BW3" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="BX3" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="BY3" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="BZ3" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="CA3" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="CB3" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="CC3" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="CD3" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="CE3" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="CF3" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="BM3" s="27" t="s">
+      <c r="CG3" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="BN3" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="BO3" s="27" t="s">
-        <v>289</v>
-      </c>
-      <c r="BP3" s="27" t="s">
+      <c r="CH3" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="CI3" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="CJ3" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="BQ3" s="27" t="s">
+      <c r="CK3" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="BR3" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="BS3" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="BT3" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="BU3" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="BV3" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="BW3" s="27" t="s">
-        <v>314</v>
-      </c>
-      <c r="BX3" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="BY3" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="BZ3" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="CA3" s="27" t="s">
-        <v>314</v>
-      </c>
-      <c r="CB3" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="CC3" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="CD3" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="CE3" s="27" t="s">
-        <v>314</v>
-      </c>
-      <c r="CF3" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="CG3" s="27" t="s">
+      <c r="CL3" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="CM3" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="CN3" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="CO3" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="CH3" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="CI3" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="CJ3" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="CK3" s="27" t="s">
+      <c r="CP3" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="CQ3" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="CR3" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="CS3" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="CL3" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="CM3" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="CN3" s="27" t="s">
+      <c r="CT3" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="CU3" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="CO3" s="27" t="s">
+      <c r="CV3" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="CP3" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="CQ3" s="27" t="s">
+      <c r="CW3" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="CX3" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="CY3" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="CZ3" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="DA3" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="DB3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="DC3" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="CR3" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="CS3" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="CT3" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="CU3" s="27" t="s">
+      <c r="DD3" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="DE3" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="DF3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="DG3" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="CV3" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="CW3" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="CX3" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="CY3" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="CZ3" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="DA3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="DB3" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="DC3" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="DD3" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="DE3" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="DF3" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="DG3" s="27" t="s">
-        <v>181</v>
-      </c>
       <c r="DH3" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="DI3" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="DJ3" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="DI3" s="58" t="s">
-        <v>241</v>
-      </c>
-      <c r="DJ3" s="26" t="s">
+      <c r="DK3" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="DL3" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="DK3" s="58" t="s">
-        <v>239</v>
-      </c>
-      <c r="DL3" s="26" t="s">
+      <c r="DM3" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="DN3" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="DM3" s="58" t="s">
-        <v>237</v>
-      </c>
-      <c r="DN3" s="26" t="s">
+      <c r="DO3" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="DP3" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="DO3" s="58" t="s">
-        <v>235</v>
-      </c>
-      <c r="DP3" s="26" t="s">
+      <c r="DQ3" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="DR3" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="DQ3" s="58" t="s">
-        <v>233</v>
-      </c>
-      <c r="DR3" s="26" t="s">
+      <c r="DS3" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="DT3" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="DS3" s="58" t="s">
-        <v>231</v>
-      </c>
-      <c r="DT3" s="26" t="s">
+      <c r="DU3" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="DV3" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="DU3" s="58" t="s">
-        <v>229</v>
-      </c>
-      <c r="DV3" s="26" t="s">
+      <c r="DW3" s="58" t="s">
+        <v>226</v>
+      </c>
+      <c r="DX3" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="DW3" s="58" t="s">
-        <v>227</v>
-      </c>
-      <c r="DX3" s="26" t="s">
-        <v>147</v>
-      </c>
       <c r="DY3" s="58" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="DZ3" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="EA3" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="EB3" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="EA3" s="58" t="s">
-        <v>223</v>
-      </c>
-      <c r="EB3" s="26" t="s">
+      <c r="EC3" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="ED3" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="EC3" s="58" t="s">
-        <v>221</v>
-      </c>
-      <c r="ED3" s="26" t="s">
+      <c r="EE3" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="EF3" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="EE3" s="58" t="s">
-        <v>219</v>
-      </c>
-      <c r="EF3" s="26" t="s">
+      <c r="EG3" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="EH3" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="EG3" s="58" t="s">
-        <v>218</v>
-      </c>
-      <c r="EH3" s="26" t="s">
-        <v>153</v>
-      </c>
       <c r="EI3" s="58" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="EJ3" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="EK3" s="58" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="EL3" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="EM3" s="58" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="EN3" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="EO3" s="58" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:145 1068:1133" s="59" customFormat="1" ht="56.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:145 1068:1133" s="59" customFormat="1" ht="56.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>5</v>
       </c>
@@ -4875,61 +4957,61 @@
         <v>6</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="37" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K4" s="43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L4" s="37" t="s">
         <v>8</v>
       </c>
       <c r="M4" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="N4" s="37" t="s">
         <v>393</v>
       </c>
-      <c r="N4" s="37" t="s">
+      <c r="O4" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q4" s="37" t="s">
         <v>394</v>
       </c>
-      <c r="O4" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q4" s="37" t="s">
+      <c r="R4" s="37" t="s">
         <v>395</v>
       </c>
-      <c r="R4" s="37" t="s">
-        <v>396</v>
-      </c>
       <c r="S4" s="37" t="s">
+        <v>385</v>
+      </c>
+      <c r="T4" s="43" t="s">
         <v>386</v>
       </c>
-      <c r="T4" s="43" t="s">
-        <v>387</v>
-      </c>
       <c r="U4" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V4" s="39" t="s">
         <v>26</v>
@@ -4944,28 +5026,28 @@
         <v>25</v>
       </c>
       <c r="Z4" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AA4" s="37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AB4" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC4" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="AC4" s="39" t="s">
-        <v>341</v>
-      </c>
       <c r="AD4" s="37" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AE4" s="39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF4" s="37" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AG4" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH4" s="37" t="s">
         <v>23</v>
@@ -4974,34 +5056,34 @@
         <v>14</v>
       </c>
       <c r="AJ4" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AK4" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AL4" s="40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM4" s="37" t="s">
+        <v>352</v>
+      </c>
+      <c r="AN4" s="37" t="s">
         <v>353</v>
       </c>
-      <c r="AN4" s="37" t="s">
-        <v>354</v>
-      </c>
       <c r="AO4" s="37" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AP4" s="37" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AQ4" s="37" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AR4" s="60" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AS4" s="37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AT4" s="37" t="s">
         <v>9</v>
@@ -5010,7 +5092,7 @@
         <v>10</v>
       </c>
       <c r="AV4" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AW4" s="39" t="s">
         <v>11</v>
@@ -5019,729 +5101,729 @@
         <v>12</v>
       </c>
       <c r="AY4" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ4" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AZ4" s="39" t="s">
-        <v>34</v>
-      </c>
       <c r="BA4" s="37" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="BB4" s="37" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="BC4" s="39" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BD4" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="BE4" s="39" t="s">
         <v>371</v>
       </c>
-      <c r="BE4" s="39" t="s">
-        <v>372</v>
-      </c>
       <c r="BF4" s="39" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="BG4" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="BH4" s="39" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="BI4" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BJ4" s="37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BK4" s="37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BL4" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="BM4" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="BN4" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="BO4" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="BP4" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="BQ4" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="BR4" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="BS4" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="BT4" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="BU4" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="BV4" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="BW4" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="BX4" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="BY4" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="BZ4" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="CA4" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="CB4" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="CC4" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="CD4" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="CE4" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="CF4" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="BM4" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="BN4" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="BO4" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="BP4" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="BQ4" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="BR4" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="BS4" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="BT4" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="BU4" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="BV4" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="BW4" s="37" t="s">
+      <c r="CG4" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="CH4" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="CI4" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="CJ4" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="CK4" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="CL4" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="CM4" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="CN4" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="BX4" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="BY4" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="BZ4" s="37" t="s">
-        <v>319</v>
-      </c>
-      <c r="CA4" s="37" t="s">
-        <v>321</v>
-      </c>
-      <c r="CB4" s="37" t="s">
-        <v>323</v>
-      </c>
-      <c r="CC4" s="37" t="s">
-        <v>325</v>
-      </c>
-      <c r="CD4" s="37" t="s">
-        <v>327</v>
-      </c>
-      <c r="CE4" s="37" t="s">
-        <v>329</v>
-      </c>
-      <c r="CF4" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="CG4" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="CH4" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="CI4" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="CJ4" s="37" t="s">
-        <v>295</v>
-      </c>
-      <c r="CK4" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="CL4" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="CM4" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="CN4" s="37" t="s">
+      <c r="CO4" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="CO4" s="37" t="s">
+      <c r="CP4" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="CQ4" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="CP4" s="37" t="s">
+      <c r="CR4" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="CS4" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="CT4" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="CQ4" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="CR4" s="37" t="s">
+      <c r="CU4" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="CS4" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="CT4" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="CU4" s="37" t="s">
-        <v>194</v>
-      </c>
       <c r="CV4" s="37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="CW4" s="37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="CX4" s="37" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="CY4" s="37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="CZ4" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="DA4" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="DB4" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="DC4" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="DD4" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="DA4" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="DB4" s="37" t="s">
+      <c r="DE4" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="DC4" s="37" t="s">
+      <c r="DF4" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="DG4" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="DD4" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="DE4" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="DF4" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="DG4" s="37" t="s">
-        <v>169</v>
-      </c>
       <c r="DH4" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="DI4" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="DJ4" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="DK4" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="DL4" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="DM4" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="DN4" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="DO4" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="DP4" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="DQ4" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="DR4" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="DS4" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="DT4" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="DU4" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="DV4" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="DW4" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="DX4" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="DY4" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="DZ4" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="EA4" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="EB4" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="EC4" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="ED4" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="EE4" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="EF4" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="DI4" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="DJ4" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="DK4" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="DL4" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="DM4" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="DN4" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="DO4" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="DP4" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="DQ4" s="37" t="s">
-        <v>247</v>
-      </c>
-      <c r="DR4" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="DS4" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="DT4" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="DU4" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="DV4" s="40" t="s">
+      <c r="EG4" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="EH4" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="EI4" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="EJ4" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="EK4" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="EL4" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="DW4" s="37" t="s">
-        <v>250</v>
-      </c>
-      <c r="DX4" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="DY4" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="DZ4" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="EA4" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="EB4" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="EC4" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="ED4" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="EE4" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="EF4" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="EG4" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="EH4" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="EI4" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="EJ4" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="EK4" s="37" t="s">
+      <c r="EM4" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="EL4" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="EM4" s="40" t="s">
+      <c r="EN4" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="EO4" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="EN4" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="EO4" s="37" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:145 1068:1133" ht="57.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:145 1068:1133" ht="57.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="57" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J5" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="K5" s="45" t="s">
         <v>161</v>
-      </c>
-      <c r="K5" s="45" t="s">
-        <v>162</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M5" s="57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N5" s="57" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O5" s="57" t="s">
+        <v>387</v>
+      </c>
+      <c r="P5" s="45" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q5" s="57" t="s">
         <v>388</v>
       </c>
-      <c r="P5" s="45" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q5" s="57" t="s">
+      <c r="R5" s="57" t="s">
         <v>389</v>
       </c>
-      <c r="R5" s="57" t="s">
+      <c r="S5" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="T5" s="45" t="s">
         <v>391</v>
       </c>
-      <c r="T5" s="45" t="s">
-        <v>392</v>
-      </c>
       <c r="U5" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="V5" s="52" t="s">
         <v>331</v>
       </c>
-      <c r="V5" s="52" t="s">
+      <c r="W5" s="52" t="s">
         <v>332</v>
       </c>
-      <c r="W5" s="52" t="s">
+      <c r="X5" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="X5" s="6" t="s">
+      <c r="Y5" s="52" t="s">
         <v>334</v>
       </c>
-      <c r="Y5" s="52" t="s">
+      <c r="Z5" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="Z5" s="4" t="s">
-        <v>336</v>
-      </c>
       <c r="AA5" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB5" s="52" t="s">
         <v>338</v>
       </c>
-      <c r="AB5" s="52" t="s">
-        <v>339</v>
-      </c>
       <c r="AC5" s="52" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AD5" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AE5" s="52" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF5" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AG5" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH5" s="6" t="s">
         <v>22</v>
       </c>
       <c r="AI5" s="6" t="s">
-        <v>28</v>
+        <v>927</v>
       </c>
       <c r="AJ5" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AK5" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="AM5" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AN5" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AO5" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AP5" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AQ5" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AR5" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AS5" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AT5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU5" s="52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AV5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW5" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="AW5" s="52" t="s">
-        <v>32</v>
-      </c>
       <c r="AX5" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ5" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="AY5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AZ5" s="52" t="s">
-        <v>91</v>
-      </c>
       <c r="BA5" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="BB5" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="BC5" s="52" t="s">
+        <v>368</v>
+      </c>
+      <c r="BD5" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="BD5" s="4" t="s">
-        <v>370</v>
-      </c>
       <c r="BE5" s="52" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="BF5" s="52" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="BG5" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="BH5" s="52" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="BI5" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BJ5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="BK5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="BK5" s="4" t="s">
+      <c r="BL5" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="BM5" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="BN5" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="BO5" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="BP5" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="BQ5" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="BR5" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="BS5" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="BT5" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="BU5" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="BV5" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="BW5" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="BX5" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="BY5" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="BZ5" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="CA5" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="CB5" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="CC5" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="CD5" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="CE5" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="CF5" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="CG5" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="CH5" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="CI5" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="CJ5" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="CK5" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="CL5" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="CM5" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="CN5" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="CO5" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="CP5" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="CQ5" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="CR5" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="CS5" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="CT5" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="CU5" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="CV5" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="CW5" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="CX5" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="CY5" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="CZ5" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="DA5" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="DB5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="DC5" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="DD5" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="DE5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="DF5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="DG5" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="DH5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="DI5" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="DJ5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="DK5" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="DL5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="DM5" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="DN5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="DO5" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="DP5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="BL5" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="BM5" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="BN5" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="BO5" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="BP5" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="BQ5" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="BR5" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="BS5" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="BT5" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="BU5" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="BV5" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="BW5" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="BX5" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="BY5" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="BZ5" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="CA5" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="CB5" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="CC5" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="CD5" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="CE5" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="CF5" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="CG5" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="CH5" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="CI5" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="CJ5" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="CK5" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="CL5" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="CM5" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="CN5" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="CO5" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="CP5" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="CQ5" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="CR5" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="CS5" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="CT5" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="CU5" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="CV5" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="CW5" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="CX5" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="CY5" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="CZ5" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="DA5" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="DB5" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="DC5" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="DD5" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="DE5" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="DF5" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="DG5" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="DH5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="DI5" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="DJ5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="DK5" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="DL5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="DM5" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="DN5" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="DO5" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="DP5" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="DQ5" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="DR5" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="DS5" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="DT5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="DU5" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="DV5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="DW5" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="DX5" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DY5" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="DZ5" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EA5" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="EB5" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="EC5" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="ED5" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="EE5" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="EF5" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="EG5" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="EH5" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="EI5" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="EJ5" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="EK5" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="EL5" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="EM5" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="EN5" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="EO5" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:145 1068:1133" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:145 1068:1133" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B6" s="66"/>
       <c r="C6"/>
       <c r="E6" s="67"/>
@@ -5825,7 +5907,7 @@
       <c r="AQN6"/>
       <c r="AQO6"/>
     </row>
-    <row r="7" spans="1:145 1068:1133" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:145 1068:1133" x14ac:dyDescent="0.3">
       <c r="B7" s="66"/>
       <c r="C7"/>
       <c r="E7" s="69"/>
@@ -5910,14 +5992,14 @@
       <c r="AQO7"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H1048576">
       <formula1>"Class,Collection,File,Fonds,Item,Other Level,Record Group,Series,Sub-Fonds,Sub-Group,Sub-Series"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P8:P1048576 T8:T1048576 K6:K1048576">
       <formula1>"FALSE,TRUE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD8:AD1048576 X8:X1048576 P6:P7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD6:AD1048576 X6:X1048576 P6:P7">
       <formula1>"bulk,single,inclusive"</formula1>
     </dataValidation>
     <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="G6:G1048576">
@@ -5927,12 +6009,22 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="EM8:EM1048576 EK8:EK1048576 EO8:EO1048576 EI8:EI1048576 EG8:EG1048576 EE8:EE1048576 EC8:EC1048576 EA8:EA1048576 DY8:DY1048576 DW8:DW1048576 DU8:DU1048576 DS8:DS1048576 DQ8:DQ1048576 DO8:DO1048576 DM8:DM1048576 DK8:DK1048576 DI8:DI1048576 J6:J1048576">
       <formula1>"FALSE,TRUE"</formula1>
     </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH1048576">
+      <formula1>0</formula1>
+      <formula2>100000</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z6:Z1048576 AF6:AF1048576">
+      <formula1>"approximate,inferred,questionable"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG6:AG1048576">
+      <formula1>"whole,part"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$4</xm:f>
@@ -5959,9 +6051,15 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Documentation!$C$1:$C$25</xm:f>
+            <xm:f>Documentation!$C$1:$C$47</xm:f>
           </x14:formula1>
-          <xm:sqref>AO6:AO1048576 AI6:AI1048576</xm:sqref>
+          <xm:sqref>AO6:AO1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Documentation!$C$1:$C$48</xm:f>
+          </x14:formula1>
+          <xm:sqref>AI6:AI1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5971,2619 +6069,2697 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D487"/>
+  <dimension ref="A1:E487"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="128.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="128.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="1025" width="8.5703125"/>
+    <col min="5" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>888</v>
+      </c>
+      <c r="D1" s="71" t="s">
+        <v>397</v>
+      </c>
+      <c r="E1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C2" s="71" t="s">
+        <v>901</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>886</v>
+      </c>
+      <c r="E2" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>903</v>
+      </c>
+      <c r="D3" s="71" t="s">
+        <v>887</v>
+      </c>
+      <c r="E3" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>107</v>
       </c>
-      <c r="B1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C1" s="71" t="s">
+      <c r="B4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>905</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C5" t="s">
+        <v>912</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>916</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>917</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" t="s">
+        <v>405</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>919</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" t="s">
+        <v>406</v>
+      </c>
+      <c r="C9" s="71" t="s">
         <v>885</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D9" s="71" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>407</v>
+      </c>
+      <c r="C10" s="71" t="s">
+        <v>884</v>
+      </c>
+      <c r="D10" s="71" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C11" s="71" t="s">
+        <v>926</v>
+      </c>
+      <c r="D11" s="71" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>409</v>
+      </c>
+      <c r="C12" s="72" t="s">
+        <v>890</v>
+      </c>
+      <c r="D12" s="71" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>923</v>
+      </c>
+      <c r="B13" t="s">
+        <v>410</v>
+      </c>
+      <c r="C13" s="71" t="s">
+        <v>894</v>
+      </c>
+      <c r="D13" s="71" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>920</v>
+      </c>
+      <c r="B14" t="s">
+        <v>411</v>
+      </c>
+      <c r="C14" s="71" t="s">
+        <v>892</v>
+      </c>
+      <c r="D14" s="71" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>921</v>
+      </c>
+      <c r="B15" t="s">
+        <v>412</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>928</v>
+      </c>
+      <c r="D15" s="71" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>922</v>
+      </c>
+      <c r="B16" t="s">
+        <v>413</v>
+      </c>
+      <c r="C16" s="71" t="s">
+        <v>907</v>
+      </c>
+      <c r="D16" s="71" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>414</v>
+      </c>
+      <c r="C17" s="71" t="s">
+        <v>910</v>
+      </c>
+      <c r="D17" s="71" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>415</v>
+      </c>
+      <c r="C18" s="71" t="s">
+        <v>929</v>
+      </c>
+      <c r="D18" s="71" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>416</v>
+      </c>
+      <c r="C19" s="71" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>417</v>
+      </c>
+      <c r="C20" s="71" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>418</v>
+      </c>
+      <c r="C21" s="71" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>419</v>
+      </c>
+      <c r="C22" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>420</v>
+      </c>
+      <c r="C23" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>421</v>
+      </c>
+      <c r="C24" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>422</v>
+      </c>
+      <c r="C25" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>423</v>
+      </c>
+      <c r="C26" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>424</v>
+      </c>
+      <c r="C27" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>425</v>
+      </c>
+      <c r="C28" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>426</v>
+      </c>
+      <c r="C29" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>427</v>
+      </c>
+      <c r="C30" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>428</v>
+      </c>
+      <c r="C31" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>429</v>
+      </c>
+      <c r="C32" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>430</v>
+      </c>
+      <c r="C33" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>431</v>
+      </c>
+      <c r="C34" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>432</v>
+      </c>
+      <c r="C35" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>433</v>
+      </c>
+      <c r="C36" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>434</v>
+      </c>
+      <c r="C37" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>435</v>
+      </c>
+      <c r="C38" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>436</v>
+      </c>
+      <c r="C39" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>437</v>
+      </c>
+      <c r="C40" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>438</v>
+      </c>
+      <c r="C41" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>439</v>
+      </c>
+      <c r="C42" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>440</v>
+      </c>
+      <c r="C43" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>441</v>
+      </c>
+      <c r="C44" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>442</v>
+      </c>
+      <c r="C45" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>443</v>
+      </c>
+      <c r="C46" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>444</v>
+      </c>
+      <c r="C47" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>445</v>
+      </c>
+      <c r="C48" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C2" s="71" t="s">
-        <v>886</v>
-      </c>
-      <c r="D2" s="71" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" t="s">
-        <v>401</v>
-      </c>
-      <c r="C3" s="71" t="s">
-        <v>888</v>
-      </c>
-      <c r="D3" s="71" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4" t="s">
-        <v>402</v>
-      </c>
-      <c r="C4" s="71" t="s">
-        <v>890</v>
-      </c>
-      <c r="D4" s="71" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" t="s">
-        <v>403</v>
-      </c>
-      <c r="C5" t="s">
-        <v>931</v>
-      </c>
-      <c r="D5" s="71" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" t="s">
-        <v>404</v>
-      </c>
-      <c r="C6" s="71" t="s">
-        <v>892</v>
-      </c>
-      <c r="D6" s="71" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" t="s">
-        <v>405</v>
-      </c>
-      <c r="C7" s="71" t="s">
-        <v>894</v>
-      </c>
-      <c r="D7" s="71" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" t="s">
-        <v>406</v>
-      </c>
-      <c r="C8" s="71" t="s">
-        <v>896</v>
-      </c>
-      <c r="D8" s="71" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B9" t="s">
-        <v>407</v>
-      </c>
-      <c r="C9" s="71" t="s">
-        <v>898</v>
-      </c>
-      <c r="D9" s="71" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>408</v>
-      </c>
-      <c r="C10" s="71" t="s">
-        <v>900</v>
-      </c>
-      <c r="D10" s="71" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>409</v>
-      </c>
-      <c r="C11" s="71" t="s">
-        <v>902</v>
-      </c>
-      <c r="D11" s="71" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>410</v>
-      </c>
-      <c r="C12" s="72" t="s">
-        <v>904</v>
-      </c>
-      <c r="D12" s="71" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>928</v>
-      </c>
-      <c r="B13" t="s">
-        <v>411</v>
-      </c>
-      <c r="C13" s="71" t="s">
-        <v>906</v>
-      </c>
-      <c r="D13" s="71" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>925</v>
-      </c>
-      <c r="B14" t="s">
-        <v>412</v>
-      </c>
-      <c r="C14" s="71" t="s">
-        <v>908</v>
-      </c>
-      <c r="D14" s="71" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>926</v>
-      </c>
-      <c r="B15" t="s">
-        <v>413</v>
-      </c>
-      <c r="C15" s="71" t="s">
-        <v>910</v>
-      </c>
-      <c r="D15" s="71" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>927</v>
-      </c>
-      <c r="B16" t="s">
-        <v>414</v>
-      </c>
-      <c r="C16" s="71" t="s">
-        <v>912</v>
-      </c>
-      <c r="D16" s="71" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>415</v>
-      </c>
-      <c r="C17" s="71" t="s">
-        <v>914</v>
-      </c>
-      <c r="D17" s="71" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>416</v>
-      </c>
-      <c r="C18" s="71" t="s">
-        <v>916</v>
-      </c>
-      <c r="D18" s="71" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>417</v>
-      </c>
-      <c r="C19" s="71" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>418</v>
-      </c>
-      <c r="C20" s="71" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>419</v>
-      </c>
-      <c r="C21" s="71" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>420</v>
-      </c>
-      <c r="C22" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>421</v>
-      </c>
-      <c r="C23" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>422</v>
-      </c>
-      <c r="C24" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>423</v>
-      </c>
-      <c r="C25" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B144" t="s">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B147" t="s">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B151" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B151" t="s">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B152" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B153" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B154" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B154" t="s">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B155" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B157" t="s">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B159" t="s">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B160" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B160" t="s">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B161" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B161" t="s">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B162" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B162" t="s">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B163" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B163" t="s">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B164" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B165" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B165" t="s">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B166" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B166" t="s">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B167" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B167" t="s">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B168" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B168" t="s">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B169" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B169" t="s">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B170" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B170" t="s">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B171" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B171" t="s">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B172" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B172" t="s">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B173" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B173" t="s">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B174" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B174" t="s">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B175" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B175" t="s">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B176" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B176" t="s">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B177" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B177" t="s">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B178" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B178" t="s">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B179" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B179" t="s">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B180" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B180" t="s">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B181" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B181" t="s">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B182" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B182" t="s">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B183" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B183" t="s">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B184" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B184" t="s">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B185" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B185" t="s">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B186" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B186" t="s">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B187" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B187" t="s">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B188" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B188" t="s">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B189" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B189" t="s">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B190" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B190" t="s">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B191" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B191" t="s">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B192" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B192" t="s">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B193" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B193" t="s">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B194" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B194" t="s">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B195" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B195" t="s">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B196" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B196" t="s">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B197" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B197" t="s">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B198" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B198" t="s">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B199" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B199" t="s">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B200" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B200" t="s">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B201" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B201" t="s">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B202" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B202" t="s">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B203" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B203" t="s">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B204" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B204" t="s">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B205" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B205" t="s">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B206" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B206" t="s">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B207" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B207" t="s">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B208" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B208" t="s">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B209" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B209" t="s">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B210" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B210" t="s">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B211" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B211" t="s">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B212" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B212" t="s">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B213" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B213" t="s">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B214" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B214" t="s">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B215" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B215" t="s">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B216" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B216" t="s">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B217" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B217" t="s">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B218" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B218" t="s">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B219" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B219" t="s">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B220" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B220" t="s">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B221" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B221" t="s">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B222" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B222" t="s">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B223" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B223" t="s">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B224" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B224" t="s">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B225" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B225" t="s">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B226" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B226" t="s">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B227" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B227" t="s">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B228" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B228" t="s">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B229" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B229" t="s">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B230" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B230" t="s">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B231" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B231" t="s">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B232" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B232" t="s">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B233" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B233" t="s">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B234" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B234" t="s">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B235" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B235" t="s">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B236" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B236" t="s">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B237" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B237" t="s">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B238" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B238" t="s">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B239" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B239" t="s">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B240" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B240" t="s">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B241" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B241" t="s">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B242" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B242" t="s">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B243" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B243" t="s">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B244" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B244" t="s">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B245" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B245" t="s">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B246" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B246" t="s">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B247" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B247" t="s">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B248" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B248" t="s">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B249" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B249" t="s">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B250" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B250" t="s">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B251" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B251" t="s">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B252" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B252" t="s">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B253" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B253" t="s">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B254" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B254" t="s">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B255" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B255" t="s">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B256" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B256" t="s">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B257" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B257" t="s">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B258" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B258" t="s">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B259" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B259" t="s">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B260" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B260" t="s">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B261" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B261" t="s">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B262" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B262" t="s">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B263" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B263" t="s">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B264" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B264" t="s">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B265" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B265" t="s">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B266" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B266" t="s">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B267" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B267" t="s">
+    <row r="268" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B268" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B268" t="s">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B269" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B269" t="s">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B270" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B270" t="s">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B271" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B271" t="s">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B272" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B272" t="s">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B273" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B273" t="s">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B274" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B274" t="s">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B275" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B275" t="s">
+    <row r="276" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B276" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B276" t="s">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B277" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B277" t="s">
+    <row r="278" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B278" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B278" t="s">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B279" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B279" t="s">
+    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B280" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B280" t="s">
+    <row r="281" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B281" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B281" t="s">
+    <row r="282" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B282" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B282" t="s">
+    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B283" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B283" t="s">
+    <row r="284" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B284" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B284" t="s">
+    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B285" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B285" t="s">
+    <row r="286" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B286" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B286" t="s">
+    <row r="287" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B287" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B287" t="s">
+    <row r="288" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B288" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B288" t="s">
+    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B289" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B289" t="s">
+    <row r="290" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B290" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B290" t="s">
+    <row r="291" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B291" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B291" t="s">
+    <row r="292" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B292" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B292" t="s">
+    <row r="293" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B293" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B293" t="s">
+    <row r="294" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B294" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B294" t="s">
+    <row r="295" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B295" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B295" t="s">
+    <row r="296" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B296" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B296" t="s">
+    <row r="297" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B297" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B297" t="s">
+    <row r="298" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B298" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B298" t="s">
+    <row r="299" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B299" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B299" t="s">
+    <row r="300" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B300" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B300" t="s">
+    <row r="301" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B301" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B301" t="s">
+    <row r="302" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B302" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B302" t="s">
+    <row r="303" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B303" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B303" t="s">
+    <row r="304" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B304" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B304" t="s">
+    <row r="305" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B305" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B305" t="s">
+    <row r="306" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B306" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B306" t="s">
+    <row r="307" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B307" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B307" t="s">
+    <row r="308" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B308" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B308" t="s">
+    <row r="309" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B309" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B309" t="s">
+    <row r="310" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B310" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B310" t="s">
+    <row r="311" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B311" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B311" t="s">
+    <row r="312" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B312" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B312" t="s">
+    <row r="313" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B313" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B313" t="s">
+    <row r="314" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B314" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B314" t="s">
+    <row r="315" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B315" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B315" t="s">
+    <row r="316" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B316" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B316" t="s">
+    <row r="317" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B317" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B317" t="s">
+    <row r="318" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B318" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B318" t="s">
+    <row r="319" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B319" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B319" t="s">
+    <row r="320" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B320" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B320" t="s">
+    <row r="321" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B321" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B321" t="s">
+    <row r="322" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B322" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B322" t="s">
+    <row r="323" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B323" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B323" t="s">
+    <row r="324" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B324" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B324" t="s">
+    <row r="325" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B325" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B325" t="s">
+    <row r="326" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B326" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B326" t="s">
+    <row r="327" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B327" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B327" t="s">
+    <row r="328" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B328" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B328" t="s">
+    <row r="329" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B329" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B329" t="s">
+    <row r="330" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B330" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B330" t="s">
+    <row r="331" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B331" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B331" t="s">
+    <row r="332" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B332" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B332" t="s">
+    <row r="333" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B333" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B333" t="s">
+    <row r="334" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B334" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B334" t="s">
+    <row r="335" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B335" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B335" t="s">
+    <row r="336" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B336" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B336" t="s">
+    <row r="337" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B337" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B337" t="s">
+    <row r="338" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B338" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B338" t="s">
+    <row r="339" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B339" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B339" t="s">
+    <row r="340" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B340" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B340" t="s">
+    <row r="341" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B341" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B341" t="s">
+    <row r="342" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B342" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B342" t="s">
+    <row r="343" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B343" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B343" t="s">
+    <row r="344" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B344" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B344" t="s">
+    <row r="345" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B345" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B345" t="s">
+    <row r="346" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B346" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B346" t="s">
+    <row r="347" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B347" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B347" t="s">
+    <row r="348" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B348" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B348" t="s">
+    <row r="349" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B349" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B349" t="s">
+    <row r="350" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B350" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B350" t="s">
+    <row r="351" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B351" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B351" t="s">
+    <row r="352" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B352" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B352" t="s">
+    <row r="353" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B353" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B353" t="s">
+    <row r="354" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B354" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B354" t="s">
+    <row r="355" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B355" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B355" t="s">
+    <row r="356" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B356" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B356" t="s">
+    <row r="357" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B357" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B357" t="s">
+    <row r="358" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B358" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B358" t="s">
+    <row r="359" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B359" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B359" t="s">
+    <row r="360" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B360" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B360" t="s">
+    <row r="361" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B361" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B361" t="s">
+    <row r="362" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B362" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B362" t="s">
+    <row r="363" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B363" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B363" t="s">
+    <row r="364" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B364" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B364" t="s">
+    <row r="365" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B365" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B365" t="s">
+    <row r="366" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B366" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B366" t="s">
+    <row r="367" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B367" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B367" t="s">
+    <row r="368" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B368" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B368" t="s">
+    <row r="369" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B369" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B369" t="s">
+    <row r="370" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B370" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B370" t="s">
+    <row r="371" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B371" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B371" t="s">
+    <row r="372" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B372" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B372" t="s">
+    <row r="373" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B373" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B373" t="s">
+    <row r="374" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B374" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B374" t="s">
+    <row r="375" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B375" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B375" t="s">
+    <row r="376" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B376" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B376" t="s">
+    <row r="377" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B377" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B377" t="s">
+    <row r="378" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B378" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B378" t="s">
+    <row r="379" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B379" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B379" t="s">
+    <row r="380" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B380" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B380" t="s">
+    <row r="381" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B381" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B381" t="s">
+    <row r="382" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B382" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B382" t="s">
+    <row r="383" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B383" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B383" t="s">
+    <row r="384" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B384" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B384" t="s">
+    <row r="385" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B385" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B385" t="s">
+    <row r="386" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B386" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B386" t="s">
+    <row r="387" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B387" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B387" t="s">
+    <row r="388" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B388" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B388" t="s">
+    <row r="389" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B389" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B389" t="s">
+    <row r="390" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B390" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B390" t="s">
+    <row r="391" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B391" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B391" t="s">
+    <row r="392" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B392" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B392" t="s">
+    <row r="393" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B393" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B393" t="s">
+    <row r="394" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B394" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B394" t="s">
+    <row r="395" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B395" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B395" t="s">
+    <row r="396" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B396" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B396" t="s">
+    <row r="397" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B397" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B397" t="s">
+    <row r="398" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B398" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B398" t="s">
+    <row r="399" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B399" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B399" t="s">
+    <row r="400" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B400" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="400" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B400" t="s">
+    <row r="401" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B401" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="401" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B401" t="s">
+    <row r="402" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B402" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="402" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B402" t="s">
+    <row r="403" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B403" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="403" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B403" t="s">
+    <row r="404" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B404" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="404" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B404" t="s">
+    <row r="405" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B405" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="405" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B405" t="s">
+    <row r="406" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B406" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="406" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B406" t="s">
+    <row r="407" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B407" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="407" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B407" t="s">
+    <row r="408" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B408" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="408" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B408" t="s">
+    <row r="409" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B409" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="409" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B409" t="s">
+    <row r="410" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B410" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="410" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B410" t="s">
+    <row r="411" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B411" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="411" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B411" t="s">
+    <row r="412" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B412" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="412" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B412" t="s">
+    <row r="413" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B413" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="413" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B413" t="s">
+    <row r="414" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B414" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="414" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B414" t="s">
+    <row r="415" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B415" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="415" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B415" t="s">
+    <row r="416" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B416" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="416" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B416" t="s">
+    <row r="417" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B417" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="417" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B417" t="s">
+    <row r="418" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B418" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="418" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B418" t="s">
+    <row r="419" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B419" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="419" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B419" t="s">
+    <row r="420" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B420" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="420" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B420" t="s">
+    <row r="421" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B421" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="421" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B421" t="s">
+    <row r="422" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B422" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="422" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B422" t="s">
+    <row r="423" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B423" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="423" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B423" t="s">
+    <row r="424" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B424" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="424" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B424" t="s">
+    <row r="425" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B425" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="425" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B425" t="s">
+    <row r="426" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B426" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="426" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B426" t="s">
+    <row r="427" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B427" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="427" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B427" t="s">
+    <row r="428" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B428" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="428" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B428" t="s">
+    <row r="429" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B429" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="429" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B429" t="s">
+    <row r="430" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B430" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="430" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B430" t="s">
+    <row r="431" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B431" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="431" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B431" t="s">
+    <row r="432" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B432" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="432" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B432" t="s">
+    <row r="433" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B433" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="433" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B433" t="s">
+    <row r="434" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B434" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="434" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B434" t="s">
+    <row r="435" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B435" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="435" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B435" t="s">
+    <row r="436" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B436" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="436" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B436" t="s">
+    <row r="437" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B437" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="437" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B437" t="s">
+    <row r="438" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B438" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="438" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B438" t="s">
+    <row r="439" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B439" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="439" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B439" t="s">
+    <row r="440" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B440" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="440" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B440" t="s">
+    <row r="441" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B441" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="441" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B441" t="s">
+    <row r="442" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B442" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="442" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B442" t="s">
+    <row r="443" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B443" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="443" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B443" t="s">
+    <row r="444" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B444" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="444" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B444" t="s">
+    <row r="445" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B445" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="445" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B445" t="s">
+    <row r="446" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B446" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="446" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B446" t="s">
+    <row r="447" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B447" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="447" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B447" t="s">
+    <row r="448" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B448" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="448" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B448" t="s">
+    <row r="449" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B449" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="449" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B449" t="s">
+    <row r="450" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B450" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="450" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B450" t="s">
+    <row r="451" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B451" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="451" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B451" t="s">
+    <row r="452" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B452" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="452" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B452" t="s">
+    <row r="453" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B453" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="453" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B453" t="s">
+    <row r="454" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B454" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="454" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B454" t="s">
+    <row r="455" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B455" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="455" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B455" t="s">
+    <row r="456" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B456" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="456" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B456" t="s">
+    <row r="457" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B457" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="457" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B457" t="s">
+    <row r="458" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B458" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="458" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B458" t="s">
+    <row r="459" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B459" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="459" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B459" t="s">
+    <row r="460" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B460" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="460" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B460" t="s">
+    <row r="461" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B461" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="461" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B461" t="s">
+    <row r="462" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B462" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="462" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B462" t="s">
+    <row r="463" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B463" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="463" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B463" t="s">
+    <row r="464" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B464" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="464" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B464" t="s">
+    <row r="465" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B465" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="465" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B465" t="s">
+    <row r="466" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B466" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="466" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B466" t="s">
+    <row r="467" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B467" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="467" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B467" t="s">
+    <row r="468" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B468" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="468" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B468" t="s">
+    <row r="469" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B469" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="469" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B469" t="s">
+    <row r="470" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B470" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="470" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B470" t="s">
+    <row r="471" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B471" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="471" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B471" t="s">
+    <row r="472" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B472" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="472" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B472" t="s">
+    <row r="473" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B473" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="473" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B473" t="s">
+    <row r="474" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B474" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="474" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B474" t="s">
+    <row r="475" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B475" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="475" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B475" t="s">
+    <row r="476" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B476" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="476" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B476" t="s">
+    <row r="477" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B477" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="477" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B477" t="s">
+    <row r="478" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B478" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="478" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B478" t="s">
+    <row r="479" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B479" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="479" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B479" t="s">
+    <row r="480" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B480" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="480" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B480" t="s">
+    <row r="481" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B481" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="481" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B481" t="s">
+    <row r="482" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B482" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="482" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B482" t="s">
+    <row r="483" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B483" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="483" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B483" t="s">
+    <row r="484" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B484" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="484" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B484" t="s">
+    <row r="485" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B485" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="485" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B485" t="s">
+    <row r="486" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B486" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="486" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B486" t="s">
+    <row r="487" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B487" t="s">
         <v>883</v>
-      </c>
-    </row>
-    <row r="487" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B487" t="s">
-        <v>884</v>
       </c>
     </row>
   </sheetData>
@@ -8598,24 +8774,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>275</v>
       </c>
     </row>
   </sheetData>
